--- a/OrcamentosIfc/OrcamentosIfc/OrcamentosIfc.xlsx
+++ b/OrcamentosIfc/OrcamentosIfc/OrcamentosIfc.xlsx
@@ -1,22 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
-  <workbookPr codeName="EstaPastaDeTrabalho" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <workbookPr codeName="EstaPastaDeTrabalho" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\TCC\OrcamentosIfc\OrcamentosIfc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472C3E26-6989-46F3-9D3E-DEC511FBFDCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC288093-5B2B-4798-A7AC-E7E4CEF38EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11295" xr2:uid="{4403AE4F-EC29-409D-ADA2-E6D08D35194D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4403AE4F-EC29-409D-ADA2-E6D08D35194D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Visão Gráfica" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelas Dinâmicas" sheetId="3" r:id="rId2"/>
+    <sheet name="Base de Dados" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="SegmentaçãodeDados_Descrição_Item_Sinapi">#N/A</definedName>
+    <definedName name="SegmentaçãodeDados_Dimensão_Associada">#N/A</definedName>
+    <definedName name="SegmentaçãodeDados_Nome_Elemento">#N/A</definedName>
+    <definedName name="SegmentaçãodeDados_Tipo">#N/A</definedName>
+    <definedName name="SegmentaçãodeDados_Unidade">#N/A</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="0" r:id="rId4"/>
+  </pivotCaches>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
+      <x14:slicerCaches>
+        <x14:slicerCache r:id="rId5"/>
+        <x14:slicerCache r:id="rId6"/>
+        <x14:slicerCache r:id="rId7"/>
+        <x14:slicerCache r:id="rId8"/>
+        <x14:slicerCache r:id="rId9"/>
+      </x14:slicerCaches>
+    </ext>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -35,8 +59,58 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>Rótulos de Linha</t>
+  </si>
+  <si>
+    <t>Total Geral</t>
+  </si>
+  <si>
+    <t>Preço Total</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Nome Projeto</t>
+  </si>
+  <si>
+    <t>Nome Elemento</t>
+  </si>
+  <si>
+    <t>Descrição Item Sinapi</t>
+  </si>
+  <si>
+    <t>Unidade</t>
+  </si>
+  <si>
+    <t>Dimensão Associada</t>
+  </si>
+  <si>
+    <t>Quantidade</t>
+  </si>
+  <si>
+    <t>Preço Unitário</t>
+  </si>
+  <si>
+    <t>Custo Total</t>
+  </si>
+  <si>
+    <t>Soma de Preço Total</t>
+  </si>
+  <si>
+    <t>(vazio)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -66,23 +140,3003 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleDark1"/>
     </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[OrcamentosIfc.xlsx]Tabelas Dinâmicas!Tabela dinâmica2</c:name>
+    <c:fmtId val="7"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Custo Por Elemento</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tabelas Dinâmicas'!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tabelas Dinâmicas'!$E$3:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(vazio)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tabelas Dinâmicas'!$F$3:$F$4</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B79E-41DA-B909-18DE3CAB9D68}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="930701503"/>
+        <c:axId val="919780943"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="930701503"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="919780943"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="919780943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="930701503"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[OrcamentosIfc.xlsx]Tabelas Dinâmicas!Tabela dinâmica1</c:name>
+    <c:fmtId val="3"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR" b="1"/>
+              <a:t>Custo Total</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="0">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr algn="ctr">
+                <a:defRPr lang="en-US" sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tabelas Dinâmicas'!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="0">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr algn="ctr">
+                  <a:defRPr lang="en-US" sz="1050" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tabelas Dinâmicas'!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tabelas Dinâmicas'!$B$3</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
+                <c:ptCount val="1"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FE10-4A4B-BAC9-03D202CCF737}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="746433599"/>
+        <c:axId val="930233327"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="746433599"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="930233327"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="930233327"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="746433599"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>107</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Gráfico 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF49007D-05E5-42AF-9A82-B0B00B8D2FA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="15" name="Tipo">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97BEE4B5-7E1D-4761-894C-2949AAB4C5F9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Tipo"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3200400" y="123825"/>
+              <a:ext cx="1828800" cy="1981200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Esta forma representa uma segmentação de dados. Segmentações de dados têm suporte no Excel 2010 ou versões posteriores.
+\Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho tiver sido salva no Excel 2003 ou versões anteriores, a segmentação de dados não poderá ser usada.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>129</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="17" name="Descrição Item Sinapi">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A061DE9-9E0D-4875-A5D7-B6E4CEFE7CD2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Descrição Item Sinapi"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8343900" y="123825"/>
+              <a:ext cx="6400800" cy="1981200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Esta forma representa uma segmentação de dados. Segmentações de dados têm suporte no Excel 2010 ou versões posteriores.
+\Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho tiver sido salva no Excel 2003 ou versões anteriores, a segmentação de dados não poderá ser usada.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="18" name="Unidade">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B2B9553-3D4F-4FF4-A9AE-E28DB139675F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Unidade"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7086600" y="123825"/>
+              <a:ext cx="1257300" cy="1981200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Esta forma representa uma segmentação de dados. Segmentações de dados têm suporte no Excel 2010 ou versões posteriores.
+\Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho tiver sido salva no Excel 2003 ou versões anteriores, a segmentação de dados não poderá ser usada.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="19" name="Dimensão Associada">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A971F4FC-E6B2-4D7F-99D0-8D8DCF8CD95D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Dimensão Associada"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5029200" y="123825"/>
+              <a:ext cx="2057400" cy="1981200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Esta forma representa uma segmentação de dados. Segmentações de dados têm suporte no Excel 2010 ou versões posteriores.
+\Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho tiver sido salva no Excel 2003 ou versões anteriores, a segmentação de dados não poderá ser usada.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="20" name="Nome Elemento">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67CEBB2B-1A1F-49A8-AC94-2B0D83FECD9D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Nome Elemento"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="114300" y="123825"/>
+              <a:ext cx="3086100" cy="1981200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="pt-BR" sz="1100"/>
+                <a:t>Esta forma representa uma segmentação de dados. Segmentações de dados têm suporte no Excel 2010 ou versões posteriores.
+\Se a forma tiver sido modificada em uma versão anterior do Excel, ou se a pasta de trabalho tiver sido salva no Excel 2003 ou versões anteriores, a segmentação de dados não poderá ser usada.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>107</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>129</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name="Gráfico 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{187F67C8-AF66-4533-A5C2-F0DEEAE79CDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Leonardo Rossi" refreshedDate="45253.019888078707" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1" xr:uid="{CA54AD04-D869-482B-9205-F42B490BEC47}">
+  <cacheSource type="worksheet">
+    <worksheetSource name="tbDADOS"/>
+  </cacheSource>
+  <cacheFields count="9">
+    <cacheField name="Tipo" numFmtId="0">
+      <sharedItems containsNonDate="0" containsBlank="1" count="4">
+        <m/>
+        <s v="Insumo" u="1"/>
+        <s v="Composição Análitica" u="1"/>
+        <s v="Composição Sintética" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Nome Projeto" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Nome Elemento" numFmtId="0">
+      <sharedItems containsNonDate="0" containsBlank="1" count="4">
+        <m/>
+        <s v="Plaster - Lime Sand" u="1"/>
+        <s v="Plaster - Gypsum" u="1"/>
+        <s v="Parede-004" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Descrição Item Sinapi" numFmtId="0">
+      <sharedItems containsNonDate="0" containsBlank="1" count="5">
+        <m/>
+        <s v="CHAPISCO APLICADO EM ALVENARIAS E ESTRUTURAS DE CONCRETO INTERNAS, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_10/2022" u="1"/>
+        <s v="ALVENARIA DE VEDAÇÃO DE BLOCOS  VAZADOS DE CONCRETO DE 14X19X29 CM (ESPESSURA 14 CM) E ARGAMASSA DE ASSENTAMENTO COM PREPARO EM BETONEIRA. AF_12/2021" u="1"/>
+        <s v="EMBOÇO OU MASSA ÚNICA EM ARGAMASSA TRAÇO 1:2:8, PREPARO MECÂNICA COM BETONEIRA 400 L, APLICADA MANUALMENTE EM PANOS DE FACHADA SEM PRESENÇA DE VÃOS, ESPESSURA DE 25 MM, ACESSO POR ANDAIME. AF_08/2022" u="1"/>
+        <s v="CHAPISCO APLICADO EM ALVENARIA (COM PRESENÇA DE VÃOS) E ESTRUTURAS DE CONCRETO DE FACHADA, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_10/2022" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Unidade" numFmtId="0">
+      <sharedItems containsNonDate="0" containsBlank="1" count="2">
+        <m/>
+        <s v="M2" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Dimensão Associada" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="0" maxValue="0" count="2">
+        <m/>
+        <n v="0" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Quantidade" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Preço Unitário" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Preço Total" numFmtId="3">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition pivotCacheId="1482968320"/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="1">
+  <r>
+    <x v="0"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8CDEFFE8-3263-40F9-868C-39FD3D3FF5A2}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+  <location ref="B2:B3" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="9">
+    <pivotField showAll="0">
+      <items count="5">
+        <item m="1" x="2"/>
+        <item m="1" x="3"/>
+        <item m="1" x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item m="1" x="2"/>
+        <item m="1" x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item m="1" x="2"/>
+        <item m="1" x="4"/>
+        <item m="1" x="1"/>
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item m="1" x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item m="1" x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de Preço Total" fld="8" baseField="0" baseItem="0" numFmtId="41"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F8F2389-5621-4A9B-A420-5803D9705314}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+  <location ref="E2:F4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0">
+      <items count="5">
+        <item m="1" x="2"/>
+        <item m="1" x="3"/>
+        <item m="1" x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item m="1" x="2"/>
+        <item m="1" x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="6">
+        <item m="1" x="2"/>
+        <item m="1" x="4"/>
+        <item m="1" x="1"/>
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item m="1" x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item m="1" x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField name="Preço Total2" dataField="1" numFmtId="3" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Custo Total" fld="8" baseField="2" baseItem="0" numFmtId="41"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="7" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Tipo" xr10:uid="{00DC8020-18C4-4664-9389-EBF642FCCE89}" sourceName="Tipo">
+  <pivotTables>
+    <pivotTable tabId="3" name="Tabela dinâmica2"/>
+    <pivotTable tabId="3" name="Tabela dinâmica1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1482968320">
+      <items count="4">
+        <i x="2" s="1" nd="1"/>
+        <i x="3" s="1" nd="1"/>
+        <i x="1" s="1" nd="1"/>
+        <i x="0" s="1" nd="1"/>
+      </items>
+    </tabular>
+  </data>
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
+      <x15:slicerCacheHideItemsWithNoData/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache2.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Descrição_Item_Sinapi" xr10:uid="{7A757AD4-BFA2-489A-BD2C-E6656D59E3FD}" sourceName="Descrição Item Sinapi">
+  <pivotTables>
+    <pivotTable tabId="3" name="Tabela dinâmica2"/>
+    <pivotTable tabId="3" name="Tabela dinâmica1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1482968320">
+      <items count="5">
+        <i x="2" s="1" nd="1"/>
+        <i x="4" s="1" nd="1"/>
+        <i x="1" s="1" nd="1"/>
+        <i x="3" s="1" nd="1"/>
+        <i x="0" s="1" nd="1"/>
+      </items>
+    </tabular>
+  </data>
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
+      <x15:slicerCacheHideItemsWithNoData/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache3.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Unidade" xr10:uid="{75712409-ADC5-4C5B-935C-469C4C2F28A8}" sourceName="Unidade">
+  <pivotTables>
+    <pivotTable tabId="3" name="Tabela dinâmica2"/>
+    <pivotTable tabId="3" name="Tabela dinâmica1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1482968320">
+      <items count="2">
+        <i x="1" s="1" nd="1"/>
+        <i x="0" s="1" nd="1"/>
+      </items>
+    </tabular>
+  </data>
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
+      <x15:slicerCacheHideItemsWithNoData/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache4.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Dimensão_Associada" xr10:uid="{BD6A50F4-192E-46E6-80E1-5337AE1D315F}" sourceName="Dimensão Associada">
+  <pivotTables>
+    <pivotTable tabId="3" name="Tabela dinâmica2"/>
+    <pivotTable tabId="3" name="Tabela dinâmica1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1482968320">
+      <items count="2">
+        <i x="1" s="1" nd="1"/>
+        <i x="0" s="1" nd="1"/>
+      </items>
+    </tabular>
+  </data>
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
+      <x15:slicerCacheHideItemsWithNoData/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache5.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Nome_Elemento" xr10:uid="{E6D1106D-9C06-4032-A522-EFB65F4885B6}" sourceName="Nome Elemento">
+  <pivotTables>
+    <pivotTable tabId="3" name="Tabela dinâmica2"/>
+    <pivotTable tabId="3" name="Tabela dinâmica1"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1482968320">
+      <items count="4">
+        <i x="3" s="1" nd="1"/>
+        <i x="2" s="1" nd="1"/>
+        <i x="1" s="1" nd="1"/>
+        <i x="0" s="1" nd="1"/>
+      </items>
+    </tabular>
+  </data>
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
+      <x15:slicerCacheHideItemsWithNoData/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicers/slicer1.xml><?xml version="1.0" encoding="utf-8"?>
+<slicers xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10">
+  <slicer name="Tipo" xr10:uid="{173F6513-1EC8-4E21-8EB2-4871FEEB8CAC}" cache="SegmentaçãodeDados_Tipo" caption="Tipo" rowHeight="241300"/>
+  <slicer name="Descrição Item Sinapi" xr10:uid="{B7954FDD-E5C2-45EF-865D-C77590ACDF15}" cache="SegmentaçãodeDados_Descrição_Item_Sinapi" caption="Descrição Item Sinapi" rowHeight="241300"/>
+  <slicer name="Unidade" xr10:uid="{46F7C597-EB2C-44D0-B320-47AA23C13D7D}" cache="SegmentaçãodeDados_Unidade" caption="Unidade" rowHeight="241300"/>
+  <slicer name="Dimensão Associada" xr10:uid="{A94CA0E6-C70E-4218-BFEC-741701661354}" cache="SegmentaçãodeDados_Dimensão_Associada" caption="Dimensão Associada" rowHeight="241300"/>
+  <slicer name="Nome Elemento" xr10:uid="{9408A363-0B2F-4C58-866A-147DADCCA820}" cache="SegmentaçãodeDados_Nome_Elemento" caption="Nome Elemento" rowHeight="241300"/>
+</slicers>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF69A9A7-AA58-48F8-9546-0256C6B7151C}" name="tbDADOS" displayName="tbDADOS" ref="A1:I2" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="A1:I2" xr:uid="{BF69A9A7-AA58-48F8-9546-0256C6B7151C}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{15529957-7FE2-404C-8796-8CCD75DEB9B8}" name="Tipo"/>
+    <tableColumn id="2" xr3:uid="{641B7E46-AE61-4FC9-862B-6DFFC30E19D0}" name="Nome Projeto"/>
+    <tableColumn id="3" xr3:uid="{EEB783F8-D8FF-4366-8611-152C55D969A3}" name="Nome Elemento"/>
+    <tableColumn id="4" xr3:uid="{17ECFD7B-FB69-4005-BC14-5A3429C91C88}" name="Descrição Item Sinapi"/>
+    <tableColumn id="5" xr3:uid="{220C6397-C6D8-4A1C-88D4-B1744F097F93}" name="Unidade"/>
+    <tableColumn id="6" xr3:uid="{1527D8EB-F408-44A2-ABCE-5C689332BF9B}" name="Dimensão Associada"/>
+    <tableColumn id="7" xr3:uid="{BA60D4DE-DE82-456F-8042-4D8B2C69CF56}" name="Quantidade"/>
+    <tableColumn id="8" xr3:uid="{9456685B-D8D3-4C23-B8D4-C07727775115}" name="Preço Unitário"/>
+    <tableColumn id="9" xr3:uid="{E3A0DD8D-8E81-42E3-89B5-FCE61BAC2C45}" name="Preço Total" dataDxfId="0">
+      <calculatedColumnFormula>tbDADOS[[#This Row],[Quantidade]]*tbDADOS[[#This Row],[Preço Unitário]]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -383,12 +3437,486 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{773BBEEE-77DF-4121-BA48-1B312B782A2E}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:DZ355"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="130" width="1.7109375" customWidth="1"/>
+    <col min="131" max="16384" width="9.140625" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId2"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB7E318B-75D1-43C3-9EAB-8CA5D5537905}">
+  <sheetPr codeName="Planilha3"/>
+  <dimension ref="B2:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0041B8EA-2765-4953-BA47-09A41F040920}">
+  <sheetPr codeName="Planilha2"/>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="94.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/OrcamentosIfc/OrcamentosIfc/OrcamentosIfc.xlsx
+++ b/OrcamentosIfc/OrcamentosIfc/OrcamentosIfc.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\TCC\OrcamentosIfc\OrcamentosIfc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC288093-5B2B-4798-A7AC-E7E4CEF38EE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3AF13D-8A76-445A-B1AD-BEA6EB9E269B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4403AE4F-EC29-409D-ADA2-E6D08D35194D}"/>
   </bookViews>
   <sheets>
     <sheet name="Visão Gráfica" sheetId="1" r:id="rId1"/>
-    <sheet name="Tabelas Dinâmicas" sheetId="3" r:id="rId2"/>
-    <sheet name="Base de Dados" sheetId="2" r:id="rId3"/>
+    <sheet name="Base de Dados" sheetId="2" r:id="rId2"/>
+    <sheet name="Tabelas Dinâmicas" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="SegmentaçãodeDados_Descrição_Item_Sinapi">#N/A</definedName>
@@ -26,7 +26,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="14" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Rótulos de Linha</t>
   </si>
@@ -2273,13 +2273,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>107</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2701,13 +2701,13 @@
     <xdr:from>
       <xdr:col>107</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>129</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>42</xdr:row>
+      <xdr:row>43</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2739,7 +2739,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Leonardo Rossi" refreshedDate="45253.019888078707" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1" xr:uid="{CA54AD04-D869-482B-9205-F42B490BEC47}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Leonardo Rossi" refreshedDate="45253.865800810185" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1" xr:uid="{CA54AD04-D869-482B-9205-F42B490BEC47}">
   <cacheSource type="worksheet">
     <worksheetSource name="tbDADOS"/>
   </cacheSource>
@@ -2756,16 +2756,20 @@
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Nome Elemento" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="4">
+      <sharedItems containsNonDate="0" containsBlank="1" count="6">
         <m/>
+        <s v="Gesso" u="1"/>
+        <s v="Embosso" u="1"/>
+        <s v="Parede-004" u="1"/>
         <s v="Plaster - Lime Sand" u="1"/>
         <s v="Plaster - Gypsum" u="1"/>
-        <s v="Parede-004" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Descrição Item Sinapi" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="5">
+      <sharedItems containsNonDate="0" containsBlank="1" count="7">
         <m/>
+        <s v="PASTILHEIRO (MENSALISTA)" u="1"/>
+        <s v="PATCH CORD (CABO DE REDE), CATEGORIA 5 E (CAT 5E) UTP, 24 AWG, 4 PARES, EXTENSAO DE 1,50 M" u="1"/>
         <s v="CHAPISCO APLICADO EM ALVENARIAS E ESTRUTURAS DE CONCRETO INTERNAS, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_10/2022" u="1"/>
         <s v="ALVENARIA DE VEDAÇÃO DE BLOCOS  VAZADOS DE CONCRETO DE 14X19X29 CM (ESPESSURA 14 CM) E ARGAMASSA DE ASSENTAMENTO COM PREPARO EM BETONEIRA. AF_12/2021" u="1"/>
         <s v="EMBOÇO OU MASSA ÚNICA EM ARGAMASSA TRAÇO 1:2:8, PREPARO MECÂNICA COM BETONEIRA 400 L, APLICADA MANUALMENTE EM PANOS DE FACHADA SEM PRESENÇA DE VÃOS, ESPESSURA DE 25 MM, ACESSO POR ANDAIME. AF_08/2022" u="1"/>
@@ -2773,8 +2777,10 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Unidade" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="2">
+      <sharedItems containsNonDate="0" containsBlank="1" count="4">
         <m/>
+        <s v="MES   " u="1"/>
+        <s v="UN    " u="1"/>
         <s v="M2" u="1"/>
       </sharedItems>
     </cacheField>
@@ -2819,7 +2825,140 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8CDEFFE8-3263-40F9-868C-39FD3D3FF5A2}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{786239AC-0410-45A6-8702-FEA41F16EDE1}" name="Tabela dinâmica3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+  <location ref="I2:J4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField showAll="0">
+      <items count="5">
+        <item m="1" x="2"/>
+        <item m="1" x="3"/>
+        <item m="1" x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="7">
+        <item m="1" x="2"/>
+        <item m="1" x="1"/>
+        <item m="1" x="3"/>
+        <item m="1" x="5"/>
+        <item m="1" x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="3"/>
+        <item m="1" x="5"/>
+        <item m="1" x="1"/>
+        <item m="1" x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item m="1" x="1"/>
+        <item m="1" x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item m="1" x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField name="Preço Total2" dataField="1" numFmtId="3" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Custo Total" fld="8" baseField="2" baseItem="0" numFmtId="41"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="7" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="8" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="11" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8CDEFFE8-3263-40F9-868C-39FD3D3FF5A2}" name="Tabela dinâmica1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="B2:B3" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="9">
     <pivotField showAll="0">
@@ -2833,27 +2972,33 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
+      <items count="7">
         <item m="1" x="2"/>
         <item m="1" x="1"/>
+        <item m="1" x="3"/>
+        <item m="1" x="5"/>
+        <item m="1" x="4"/>
         <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0">
-      <items count="6">
+      <items count="8">
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="3"/>
+        <item m="1" x="5"/>
+        <item m="1" x="1"/>
         <item m="1" x="2"/>
-        <item m="1" x="4"/>
-        <item m="1" x="1"/>
-        <item m="1" x="3"/>
         <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0">
-      <items count="3">
+      <items count="5">
+        <item m="1" x="3"/>
         <item m="1" x="1"/>
+        <item m="1" x="2"/>
         <item x="0"/>
         <item t="default"/>
       </items>
@@ -2901,8 +3046,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F8F2389-5621-4A9B-A420-5803D9705314}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F8F2389-5621-4A9B-A420-5803D9705314}" name="Tabela dinâmica2" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
   <location ref="E2:F4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0">
@@ -2916,27 +3061,33 @@
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
-      <items count="5">
+      <items count="7">
         <item m="1" x="3"/>
+        <item m="1" x="5"/>
+        <item m="1" x="4"/>
+        <item x="0"/>
+        <item m="1" x="1"/>
         <item m="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="8">
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="3"/>
+        <item m="1" x="5"/>
         <item m="1" x="1"/>
+        <item m="1" x="2"/>
         <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0">
-      <items count="6">
+      <items count="5">
+        <item m="1" x="3"/>
+        <item m="1" x="1"/>
         <item m="1" x="2"/>
-        <item m="1" x="4"/>
-        <item m="1" x="1"/>
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item m="1" x="1"/>
         <item x="0"/>
         <item t="default"/>
       </items>
@@ -2997,6 +3148,7 @@
   <pivotTables>
     <pivotTable tabId="3" name="Tabela dinâmica2"/>
     <pivotTable tabId="3" name="Tabela dinâmica1"/>
+    <pivotTable tabId="3" name="Tabela dinâmica3"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="1482968320">
@@ -3021,14 +3173,17 @@
   <pivotTables>
     <pivotTable tabId="3" name="Tabela dinâmica2"/>
     <pivotTable tabId="3" name="Tabela dinâmica1"/>
+    <pivotTable tabId="3" name="Tabela dinâmica3"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="1482968320">
-      <items count="5">
+      <items count="7">
+        <i x="4" s="1" nd="1"/>
+        <i x="6" s="1" nd="1"/>
+        <i x="3" s="1" nd="1"/>
+        <i x="5" s="1" nd="1"/>
+        <i x="1" s="1" nd="1"/>
         <i x="2" s="1" nd="1"/>
-        <i x="4" s="1" nd="1"/>
-        <i x="1" s="1" nd="1"/>
-        <i x="3" s="1" nd="1"/>
         <i x="0" s="1" nd="1"/>
       </items>
     </tabular>
@@ -3046,11 +3201,14 @@
   <pivotTables>
     <pivotTable tabId="3" name="Tabela dinâmica2"/>
     <pivotTable tabId="3" name="Tabela dinâmica1"/>
+    <pivotTable tabId="3" name="Tabela dinâmica3"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="1482968320">
-      <items count="2">
+      <items count="4">
+        <i x="3" s="1" nd="1"/>
         <i x="1" s="1" nd="1"/>
+        <i x="2" s="1" nd="1"/>
         <i x="0" s="1" nd="1"/>
       </items>
     </tabular>
@@ -3068,6 +3226,7 @@
   <pivotTables>
     <pivotTable tabId="3" name="Tabela dinâmica2"/>
     <pivotTable tabId="3" name="Tabela dinâmica1"/>
+    <pivotTable tabId="3" name="Tabela dinâmica3"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="1482968320">
@@ -3090,13 +3249,16 @@
   <pivotTables>
     <pivotTable tabId="3" name="Tabela dinâmica2"/>
     <pivotTable tabId="3" name="Tabela dinâmica1"/>
+    <pivotTable tabId="3" name="Tabela dinâmica3"/>
   </pivotTables>
   <data>
     <tabular pivotCacheId="1482968320">
-      <items count="4">
-        <i x="3" s="1" nd="1"/>
+      <items count="6">
         <i x="2" s="1" nd="1"/>
         <i x="1" s="1" nd="1"/>
+        <i x="3" s="1" nd="1"/>
+        <i x="5" s="1" nd="1"/>
+        <i x="4" s="1" nd="1"/>
         <i x="0" s="1" nd="1"/>
       </items>
     </tabular>
@@ -3437,9 +3599,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{773BBEEE-77DF-4121-BA48-1B312B782A2E}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:DZ355"/>
+  <dimension ref="A1:DZ356"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="18" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A19" sqref="A19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3464,8 +3629,8 @@
     <row r="15" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="20" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3489,8 +3654,8 @@
     <row r="40" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="41" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="45" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="46" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="47" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3802,6 +3967,7 @@
     <row r="353" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="354" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="355" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -3816,57 +3982,13 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB7E318B-75D1-43C3-9EAB-8CA5D5537905}">
-  <sheetPr codeName="Planilha3"/>
-  <dimension ref="B2:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="4"/>
-      <c r="E3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="E4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0041B8EA-2765-4953-BA47-09A41F040920}">
   <sheetPr codeName="Planilha2"/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3919,4 +4041,68 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB7E318B-75D1-43C3-9EAB-8CA5D5537905}">
+  <sheetPr codeName="Planilha3"/>
+  <dimension ref="B2:J4"/>
+  <sheetViews>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="4"/>
+      <c r="E3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="I3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="E4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="I4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+</worksheet>
 </file>
--- a/OrcamentosIfc/OrcamentosIfc/OrcamentosIfc.xlsx
+++ b/OrcamentosIfc/OrcamentosIfc/OrcamentosIfc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\TCC\OrcamentosIfc\OrcamentosIfc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3AF13D-8A76-445A-B1AD-BEA6EB9E269B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C12A3EF3-122E-461E-91F7-C93866693E1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4403AE4F-EC29-409D-ADA2-E6D08D35194D}"/>
   </bookViews>
@@ -26,7 +26,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="14" r:id="rId4"/>
+    <pivotCache cacheId="43" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Rótulos de Linha</t>
   </si>
@@ -103,6 +103,9 @@
   <si>
     <t>(vazio)</t>
   </si>
+  <si>
+    <t>%</t>
+  </si>
 </sst>
 </file>
 
@@ -140,21 +143,88 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="19">
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="3" formatCode="#,##0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -213,6 +283,14 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.0728305188266708E-3"/>
+          <c:y val="4.2872439975208251E-3"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -412,6 +490,80 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="pt-BR"/>
+            </a:p>
+          </c:txPr>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln w="9525">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -428,7 +580,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Total</c:v>
+                  <c:v>Custo Total</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -535,10 +687,137 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
         <c:axId val="930701503"/>
         <c:axId val="919780943"/>
       </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Tabelas Dinâmicas'!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>%</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="pt-BR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Tabelas Dinâmicas'!$E$3:$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>(vazio)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Tabelas Dinâmicas'!$G$3:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E551-4E69-9276-1BD34B6E9392}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="588801120"/>
+        <c:axId val="1278578192"/>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="930701503"/>
         <c:scaling>
@@ -646,6 +925,64 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="1278578192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="-9999"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="588801120"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="588801120"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1278578192"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2739,14 +3076,15 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Leonardo Rossi" refreshedDate="45253.865800810185" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1" xr:uid="{CA54AD04-D869-482B-9205-F42B490BEC47}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Leonardo Rossi" refreshedDate="45256.921263888886" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1" xr:uid="{CA54AD04-D869-482B-9205-F42B490BEC47}">
   <cacheSource type="worksheet">
     <worksheetSource name="tbDADOS"/>
   </cacheSource>
   <cacheFields count="9">
     <cacheField name="Tipo" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="4">
+      <sharedItems containsNonDate="0" containsBlank="1" count="5">
         <m/>
+        <s v="Composicão" u="1"/>
         <s v="Insumo" u="1"/>
         <s v="Composição Análitica" u="1"/>
         <s v="Composição Sintética" u="1"/>
@@ -2756,8 +3094,11 @@
       <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
     </cacheField>
     <cacheField name="Nome Elemento" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="6">
+      <sharedItems containsNonDate="0" containsBlank="1" count="9">
         <m/>
+        <s v="PAREDE EXTERNA" u="1"/>
+        <s v="Tijolo, Comum" u="1"/>
+        <s v="PORCELANATO" u="1"/>
         <s v="Gesso" u="1"/>
         <s v="Embosso" u="1"/>
         <s v="Parede-004" u="1"/>
@@ -2766,8 +3107,11 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Descrição Item Sinapi" numFmtId="0">
-      <sharedItems containsNonDate="0" containsBlank="1" count="7">
+      <sharedItems containsNonDate="0" containsBlank="1" count="10">
         <m/>
+        <s v="ALVENARIA DE VEDAÇÃO DE BLOCOS CERÂMICOS FURADOS NA VERTICAL DE 19X19X39 CM (ESPESSURA 19 CM) E ARGAMASSA DE ASSENTAMENTO COM PREPARO EM BETONEIRA. AF_12/2021" u="1"/>
+        <s v="ALVENARIA DE VEDAÇÃO DE BLOCOS CERÂMICOS FURADOS NA HORIZONTAL DE 14X9X19 CM (ESPESSURA 14 CM, BLOCO DEITADO) E ARGAMASSA DE ASSENTAMENTO COM PREPARO EM BETONEIRA. AF_12/2021" u="1"/>
+        <s v="REVESTIMENTO CERÂMICO PARA PISO COM PLACAS TIPO PORCELANATO DE DIMENSÕES 60X60 CM APLICADA EM AMBIENTES DE ÁREA MAIOR QUE 10 M². AF_02/2023_PE" u="1"/>
         <s v="PASTILHEIRO (MENSALISTA)" u="1"/>
         <s v="PATCH CORD (CABO DE REDE), CATEGORIA 5 E (CAT 5E) UTP, 24 AWG, 4 PARES, EXTENSAO DE 1,50 M" u="1"/>
         <s v="CHAPISCO APLICADO EM ALVENARIAS E ESTRUTURAS DE CONCRETO INTERNAS, COM COLHER DE PEDREIRO.  ARGAMASSA TRAÇO 1:3 COM PREPARO EM BETONEIRA 400L. AF_10/2022" u="1"/>
@@ -2779,9 +3123,9 @@
     <cacheField name="Unidade" numFmtId="0">
       <sharedItems containsNonDate="0" containsBlank="1" count="4">
         <m/>
+        <s v="M2" u="1"/>
         <s v="MES   " u="1"/>
         <s v="UN    " u="1"/>
-        <s v="M2" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Dimensão Associada" numFmtId="0">
@@ -2825,47 +3169,217 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{786239AC-0410-45A6-8702-FEA41F16EDE1}" name="Tabela dinâmica3" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
-  <location ref="I2:J4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F8F2389-5621-4A9B-A420-5803D9705314}" name="Tabela dinâmica2" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+  <location ref="E2:G4" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0">
-      <items count="5">
+      <items count="6">
+        <item m="1" x="1"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item m="1" x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0" sortType="descending">
+      <items count="10">
+        <item m="1" x="6"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item m="1" x="1"/>
         <item m="1" x="2"/>
         <item m="1" x="3"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="11">
+        <item m="1" x="7"/>
+        <item m="1" x="2"/>
+        <item m="1" x="1"/>
+        <item m="1" x="9"/>
+        <item m="1" x="6"/>
+        <item m="1" x="8"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="5">
+        <item m="1" x="1"/>
+        <item m="1" x="2"/>
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
         <item m="1" x="1"/>
         <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField name="Preço Total2" dataField="1" numFmtId="3" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Custo Total" fld="8" baseField="2" baseItem="0" numFmtId="41"/>
+    <dataField name="%" fld="8" showDataAs="percentOfTotal" baseField="0" baseItem="0" numFmtId="9"/>
+  </dataFields>
+  <formats count="2">
+    <format dxfId="7">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="3">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="3">
+    <chartFormat chart="7" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="7" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="2" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{786239AC-0410-45A6-8702-FEA41F16EDE1}" name="Tabela dinâmica3" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
+  <location ref="I2:J4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="9">
     <pivotField showAll="0">
-      <items count="7">
-        <item m="1" x="2"/>
+      <items count="6">
         <item m="1" x="1"/>
         <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item m="1" x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="10">
         <item m="1" x="5"/>
         <item m="1" x="4"/>
+        <item m="1" x="1"/>
+        <item m="1" x="6"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
+        <item m="1" x="3"/>
+        <item m="1" x="2"/>
         <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="8">
+      <items count="11">
+        <item m="1" x="7"/>
+        <item m="1" x="9"/>
+        <item m="1" x="6"/>
+        <item m="1" x="8"/>
         <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="3"/>
         <item m="1" x="5"/>
+        <item x="0"/>
         <item m="1" x="1"/>
         <item m="1" x="2"/>
-        <item x="0"/>
+        <item m="1" x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0">
       <items count="5">
-        <item m="1" x="3"/>
         <item m="1" x="1"/>
         <item m="1" x="2"/>
+        <item m="1" x="3"/>
         <item x="0"/>
         <item t="default"/>
       </items>
@@ -2957,48 +3471,55 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8CDEFFE8-3263-40F9-868C-39FD3D3FF5A2}" name="Tabela dinâmica1" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{8CDEFFE8-3263-40F9-868C-39FD3D3FF5A2}" name="Tabela dinâmica1" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="B2:B3" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="9">
     <pivotField showAll="0">
-      <items count="5">
+      <items count="6">
+        <item m="1" x="1"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
         <item m="1" x="2"/>
-        <item m="1" x="3"/>
-        <item m="1" x="1"/>
         <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0">
-      <items count="7">
-        <item m="1" x="2"/>
-        <item m="1" x="1"/>
-        <item m="1" x="3"/>
+      <items count="10">
         <item m="1" x="5"/>
         <item m="1" x="4"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="8">
-        <item m="1" x="4"/>
+        <item m="1" x="1"/>
         <item m="1" x="6"/>
+        <item m="1" x="8"/>
+        <item m="1" x="7"/>
         <item m="1" x="3"/>
-        <item m="1" x="5"/>
-        <item m="1" x="1"/>
         <item m="1" x="2"/>
         <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0">
+      <items count="11">
+        <item m="1" x="7"/>
+        <item m="1" x="2"/>
+        <item m="1" x="1"/>
+        <item m="1" x="9"/>
+        <item m="1" x="6"/>
+        <item m="1" x="8"/>
+        <item m="1" x="4"/>
+        <item m="1" x="5"/>
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
       <items count="5">
-        <item m="1" x="3"/>
         <item m="1" x="1"/>
         <item m="1" x="2"/>
+        <item m="1" x="3"/>
         <item x="0"/>
         <item t="default"/>
       </items>
@@ -3046,103 +3567,6 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F8F2389-5621-4A9B-A420-5803D9705314}" name="Tabela dinâmica2" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="8">
-  <location ref="E2:F4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField showAll="0">
-      <items count="5">
-        <item m="1" x="2"/>
-        <item m="1" x="3"/>
-        <item m="1" x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item m="1" x="3"/>
-        <item m="1" x="5"/>
-        <item m="1" x="4"/>
-        <item x="0"/>
-        <item m="1" x="1"/>
-        <item m="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="8">
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="3"/>
-        <item m="1" x="5"/>
-        <item m="1" x="1"/>
-        <item m="1" x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="5">
-        <item m="1" x="3"/>
-        <item m="1" x="1"/>
-        <item m="1" x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item m="1" x="1"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField name="Preço Total2" dataField="1" numFmtId="3" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Custo Total" fld="8" baseField="2" baseItem="0" numFmtId="41"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="7" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/slicerCaches/slicerCache1.xml><?xml version="1.0" encoding="utf-8"?>
 <slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="SegmentaçãodeDados_Tipo" xr10:uid="{00DC8020-18C4-4664-9389-EBF642FCCE89}" sourceName="Tipo">
   <pivotTables>
@@ -3152,10 +3576,11 @@
   </pivotTables>
   <data>
     <tabular pivotCacheId="1482968320">
-      <items count="4">
+      <items count="5">
+        <i x="1" s="1" nd="1"/>
+        <i x="3" s="1" nd="1"/>
+        <i x="4" s="1" nd="1"/>
         <i x="2" s="1" nd="1"/>
-        <i x="3" s="1" nd="1"/>
-        <i x="1" s="1" nd="1"/>
         <i x="0" s="1" nd="1"/>
       </items>
     </tabular>
@@ -3177,13 +3602,16 @@
   </pivotTables>
   <data>
     <tabular pivotCacheId="1482968320">
-      <items count="7">
+      <items count="10">
+        <i x="7" s="1" nd="1"/>
+        <i x="2" s="1" nd="1"/>
+        <i x="1" s="1" nd="1"/>
+        <i x="9" s="1" nd="1"/>
+        <i x="6" s="1" nd="1"/>
+        <i x="8" s="1" nd="1"/>
         <i x="4" s="1" nd="1"/>
-        <i x="6" s="1" nd="1"/>
+        <i x="5" s="1" nd="1"/>
         <i x="3" s="1" nd="1"/>
-        <i x="5" s="1" nd="1"/>
-        <i x="1" s="1" nd="1"/>
-        <i x="2" s="1" nd="1"/>
         <i x="0" s="1" nd="1"/>
       </items>
     </tabular>
@@ -3206,9 +3634,9 @@
   <data>
     <tabular pivotCacheId="1482968320">
       <items count="4">
-        <i x="3" s="1" nd="1"/>
         <i x="1" s="1" nd="1"/>
         <i x="2" s="1" nd="1"/>
+        <i x="3" s="1" nd="1"/>
         <i x="0" s="1" nd="1"/>
       </items>
     </tabular>
@@ -3253,12 +3681,15 @@
   </pivotTables>
   <data>
     <tabular pivotCacheId="1482968320">
-      <items count="6">
-        <i x="2" s="1" nd="1"/>
-        <i x="1" s="1" nd="1"/>
-        <i x="3" s="1" nd="1"/>
+      <items count="9">
         <i x="5" s="1" nd="1"/>
         <i x="4" s="1" nd="1"/>
+        <i x="1" s="1" nd="1"/>
+        <i x="6" s="1" nd="1"/>
+        <i x="8" s="1" nd="1"/>
+        <i x="7" s="1" nd="1"/>
+        <i x="3" s="1" nd="1"/>
+        <i x="2" s="1" nd="1"/>
         <i x="0" s="1" nd="1"/>
       </items>
     </tabular>
@@ -3282,20 +3713,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF69A9A7-AA58-48F8-9546-0256C6B7151C}" name="tbDADOS" displayName="tbDADOS" ref="A1:I2" insertRow="1" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{BF69A9A7-AA58-48F8-9546-0256C6B7151C}" name="tbDADOS" displayName="tbDADOS" ref="A1:I2" insertRow="1" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:I2" xr:uid="{BF69A9A7-AA58-48F8-9546-0256C6B7151C}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{15529957-7FE2-404C-8796-8CCD75DEB9B8}" name="Tipo"/>
-    <tableColumn id="2" xr3:uid="{641B7E46-AE61-4FC9-862B-6DFFC30E19D0}" name="Nome Projeto"/>
-    <tableColumn id="3" xr3:uid="{EEB783F8-D8FF-4366-8611-152C55D969A3}" name="Nome Elemento"/>
-    <tableColumn id="4" xr3:uid="{17ECFD7B-FB69-4005-BC14-5A3429C91C88}" name="Descrição Item Sinapi"/>
-    <tableColumn id="5" xr3:uid="{220C6397-C6D8-4A1C-88D4-B1744F097F93}" name="Unidade"/>
-    <tableColumn id="6" xr3:uid="{1527D8EB-F408-44A2-ABCE-5C689332BF9B}" name="Dimensão Associada"/>
-    <tableColumn id="7" xr3:uid="{BA60D4DE-DE82-456F-8042-4D8B2C69CF56}" name="Quantidade"/>
-    <tableColumn id="8" xr3:uid="{9456685B-D8D3-4C23-B8D4-C07727775115}" name="Preço Unitário"/>
-    <tableColumn id="9" xr3:uid="{E3A0DD8D-8E81-42E3-89B5-FCE61BAC2C45}" name="Preço Total" dataDxfId="0">
-      <calculatedColumnFormula>tbDADOS[[#This Row],[Quantidade]]*tbDADOS[[#This Row],[Preço Unitário]]</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="1" xr3:uid="{15529957-7FE2-404C-8796-8CCD75DEB9B8}" name="Tipo" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{641B7E46-AE61-4FC9-862B-6DFFC30E19D0}" name="Nome Projeto" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{EEB783F8-D8FF-4366-8611-152C55D969A3}" name="Nome Elemento" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{17ECFD7B-FB69-4005-BC14-5A3429C91C88}" name="Descrição Item Sinapi" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{220C6397-C6D8-4A1C-88D4-B1744F097F93}" name="Unidade" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{1527D8EB-F408-44A2-ABCE-5C689332BF9B}" name="Dimensão Associada" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{BA60D4DE-DE82-456F-8042-4D8B2C69CF56}" name="Quantidade" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{9456685B-D8D3-4C23-B8D4-C07727775115}" name="Preço Unitário" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{E3A0DD8D-8E81-42E3-89B5-FCE61BAC2C45}" name="Preço Total" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3599,7 +4028,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{773BBEEE-77DF-4121-BA48-1B312B782A2E}">
   <sheetPr codeName="Planilha1"/>
-  <dimension ref="A1:DZ356"/>
+  <dimension ref="A1:DZ362"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="18" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
@@ -3612,362 +4041,368 @@
     <col min="131" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="4" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="5" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="6" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="22" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="24" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="25" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="27" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="34" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="37" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="39" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="40" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="42" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="43" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="45" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="46" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="48" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="49" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="51" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="52" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="54" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="55" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="111" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="112" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="114" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="120" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="121" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="123" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="124" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="126" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="127" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="129" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="130" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="132" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="133" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="135" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="136" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="138" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="139" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="141" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="142" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="144" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="145" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="147" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="148" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="150" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="151" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="153" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="154" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="156" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="157" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="159" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="160" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="162" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="163" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="165" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="166" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="168" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="169" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="171" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="172" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="174" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="175" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="177" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="178" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="180" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="181" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="183" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="184" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="186" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="187" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="189" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="190" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="192" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="193" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="195" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="196" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="198" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="199" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="201" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="202" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="204" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="205" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="207" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="208" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="210" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="211" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="213" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="214" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="216" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="217" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="219" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="220" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="222" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="223" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="225" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="226" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="228" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="229" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="231" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="232" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="234" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="235" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="237" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="238" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="240" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="241" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="243" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="244" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="246" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="247" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="249" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="250" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="252" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="253" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="255" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="256" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="258" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="259" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="261" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="262" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="264" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="265" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="267" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="268" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="270" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="271" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="273" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="274" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="276" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="277" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="279" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="280" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="282" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="283" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="285" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="286" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="288" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="289" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="291" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="292" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="294" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="295" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="297" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="298" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="300" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="301" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="303" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="304" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="306" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="307" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="309" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="310" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="312" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="313" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="315" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="316" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="318" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="319" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="321" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="322" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="324" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="325" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="327" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="328" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="330" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="331" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="333" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="334" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="336" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="337" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="339" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="340" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="342" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="343" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="345" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="346" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="348" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="349" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="351" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="352" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="354" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="355" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" customFormat="1" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="121" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="123" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="127" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="129" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="133" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="135" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="139" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="147" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="151" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="153" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="157" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="159" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="163" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="165" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="187" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="199" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="205" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="207" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="211" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="213" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="219" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="223" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="225" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="231" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="235" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="237" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="241" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="249" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="253" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="255" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="259" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="261" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="265" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="267" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="277" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="279" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="283" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="291" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="303" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="307" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="309" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="313" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="315" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="319" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="321" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="325" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="327" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="331" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="333" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="343" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="345" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="346" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="348" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="349" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="351" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="352" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="354" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="355" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" customFormat="1" ht="9.9499999999999993" hidden="1" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="357" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="358" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="359" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="360" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="361" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="362" customFormat="1" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
@@ -3984,57 +4419,66 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0041B8EA-2765-4953-BA47-09A41F040920}">
   <sheetPr codeName="Planilha2"/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="94.7109375" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="83.5703125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="17" style="4" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I2" s="1"/>
+      <c r="I2" s="6"/>
     </row>
+    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:9" ht="45" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:9" ht="45" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:9" ht="45" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:9" ht="45" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="30" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="30" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <tableParts count="1">
@@ -4048,8 +4492,8 @@
   <sheetPr codeName="Planilha3"/>
   <dimension ref="B2:J4"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4058,7 +4502,7 @@
     <col min="3" max="3" width="21.85546875" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
@@ -4067,13 +4511,16 @@
       <c r="B2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="G2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J2" t="s">
@@ -4081,25 +4528,31 @@
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="4"/>
-      <c r="E3" s="3" t="s">
+      <c r="B3" s="3"/>
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="4"/>
-      <c r="I3" s="3" t="s">
+      <c r="F3" s="3"/>
+      <c r="G3" s="8" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="4"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="4"/>
-      <c r="I4" s="3" t="s">
+      <c r="F4" s="3"/>
+      <c r="G4" s="8" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="J4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
